--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Grunt.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Grunt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842FF210-192B-4C69-83C7-8A6A4E8C20B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="20">
   <si>
     <t>B</t>
   </si>
@@ -74,12 +75,15 @@
   <si>
     <t>Green</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +243,14 @@
       <color rgb="FFFF66CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -299,7 +317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 4"/>
+        <xdr:cNvPr id="13" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -339,7 +363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPr id="1030" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -368,9 +398,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +438,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -442,6 +472,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -476,9 +507,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -651,19 +683,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="80" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -746,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -844,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -942,7 +974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1040,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1138,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1236,7 +1268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1334,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1426,13 +1458,13 @@
         <v>14</v>
       </c>
       <c r="BP8" s="8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BR8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1530,7 +1562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1628,7 +1660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1726,7 +1758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1818,7 +1850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1910,7 +1942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="W14">
         <v>12</v>
       </c>
@@ -1980,24 +2012,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Grunt.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Grunt.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842FF210-192B-4C69-83C7-8A6A4E8C20B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="23">
   <si>
     <t>B</t>
   </si>
@@ -77,13 +76,22 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>grunt1</t>
+  </si>
+  <si>
+    <t>grunt2</t>
+  </si>
+  <si>
+    <t>grunt3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,7 +282,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -320,7 +328,7 @@
         <xdr:cNvPr id="13" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -366,7 +374,7 @@
         <xdr:cNvPr id="1030" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -398,9 +406,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +446,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -472,7 +480,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -507,10 +514,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,19 +689,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BP8" sqref="BP8"/>
+      <selection activeCell="BB14" sqref="AT2:BB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="80" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -778,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70">
       <c r="A2">
         <v>0</v>
       </c>
@@ -876,7 +882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70">
       <c r="A3">
         <v>1</v>
       </c>
@@ -974,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70">
       <c r="W14">
         <v>12</v>
       </c>
@@ -2002,6 +2008,17 @@
       </c>
       <c r="BB14" s="4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70">
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2012,24 +2029,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
